--- a/Practica_2/BA/BA_Estudio/BA.xlsx
+++ b/Practica_2/BA/BA_Estudio/BA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\EUE\Practica_2\BA\BA_Estudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE26786-2DD0-4678-AC5F-C0D4AF7F5ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA044BA-B01E-4370-AE35-EEA350A6142E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -488,6 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,9 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,34 +868,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
       <c r="V1" t="s">
         <v>8</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
@@ -1695,27 +1695,27 @@
         <v>-1.0749999999999999E-2</v>
       </c>
       <c r="N13" s="14">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="O13">
-        <v>113</v>
+        <v>144.1</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="Q13" s="11">
-        <v>352000000</v>
+        <v>251000000</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" ref="S13" si="6" xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.29877285249186092</v>
+        <v>-1.6605753295358516E-2</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="7" xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.18137991485098937</v>
+        <v>0.14802497996992736</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">

--- a/Practica_2/BA/BA_Estudio/BA.xlsx
+++ b/Practica_2/BA/BA_Estudio/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA044BA-B01E-4370-AE35-EEA350A6142E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1151E08-16A0-4DA9-904D-48942BE12CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>I -&gt; t = 0,0025</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,8 +1658,8 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>52</v>
+      <c r="B13" t="s">
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1681,41 +1684,173 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>0.01</v>
       </c>
       <c r="L13" s="20">
-        <f xml:space="preserve"> 0.013*1.5</f>
-        <v>1.95E-2</v>
+        <f xml:space="preserve"> 0.013*1.4</f>
+        <v>1.8199999999999997E-2</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13" si="5">-(F13+L13)/2</f>
-        <v>-1.0749999999999999E-2</v>
+        <v>-1.0099999999999998E-2</v>
       </c>
       <c r="N13" s="14">
-        <v>2.76</v>
+        <v>2.27</v>
       </c>
       <c r="O13">
-        <v>144.1</v>
+        <v>177.5</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="Q13" s="11">
-        <v>251000000</v>
+        <v>223000000</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" ref="S13" si="6" xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-1.6605753295358516E-2</v>
+        <v>0.10686975750163685</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="7" xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.14802497996992736</v>
+        <v>0.29217161422624116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E14" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F14">
+        <v>2E-3</v>
+      </c>
+      <c r="G14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="8">-(F14+H14)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="9">-(F14+L14)/2</f>
+        <v>-9.5000000000000015E-3</v>
+      </c>
+      <c r="N14" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O14">
+        <v>166.3</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>244000000</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" ref="S14" si="10" xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>1.1606376733053425E-2</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" ref="T14" si="11" xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.18096012283791718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E15" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F15">
+        <v>2E-3</v>
+      </c>
+      <c r="G15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15" si="12">-(F15+H15)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="13">-(F15+L15)/2</f>
+        <v>-9.7500000000000017E-3</v>
+      </c>
+      <c r="N15" s="14">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O15">
+        <v>171</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>235000000</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" ref="S15" si="14" xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>5.0348748607936145E-2</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" ref="T15" si="15" xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.22618838286149701</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">

--- a/Practica_2/BA/BA_Estudio/BA.xlsx
+++ b/Practica_2/BA/BA_Estudio/BA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1151E08-16A0-4DA9-904D-48942BE12CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C2918-B19B-4BD5-94D1-8F3D334B40DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
+    <workbookView xWindow="5595" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -190,16 +190,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>I -&gt; t = 0,002</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
     <t>Ref</t>
   </si>
   <si>
-    <t>I -&gt; t = 0,0025</t>
+    <t>I  [t = 2 mm]</t>
+  </si>
+  <si>
+    <t>I  [t = 2,5 mm]</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +230,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF353535"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -422,19 +416,19 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,10 +436,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -461,39 +455,69 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,21 +528,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
@@ -527,9 +542,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -853,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,121 +892,123 @@
     <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33"/>
-      <c r="V1" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
       <c r="V2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="2">
         <v>448000000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="2">
         <v>523000000</v>
       </c>
       <c r="F3">
@@ -997,10 +1021,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="0">-(F3+H3)/2</f>
+        <f t="shared" ref="I3:I10" si="0">-(F3+H3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K3">
@@ -1010,56 +1034,56 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M12" si="1">-(F3+L3)/2</f>
+        <f>-(F3+L3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="3">
         <v>2.1090200000000001</v>
       </c>
       <c r="O3">
         <v>122.06</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="2">
         <v>104000000</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="2">
         <v>414000000</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="2">
         <v>21000000</v>
       </c>
-      <c r="S3" s="14">
-        <f xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.4037875460800362</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:T12" si="2" xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="S3" s="3">
+        <f xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.32248584781822298</v>
+      </c>
+      <c r="T3" s="3">
+        <f xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.30397519330325651</v>
       </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
       <c r="V3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="2">
         <v>1000000000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="2">
         <v>1170000000</v>
       </c>
       <c r="F4">
@@ -1075,7 +1099,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K4">
@@ -1085,59 +1109,59 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f>-(F4+L4)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="6">
         <v>3.0590000000000002</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="3">
         <v>148.09710000000001</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="2">
         <v>109000000</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="2">
         <v>437000000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="2">
         <v>22100000</v>
       </c>
-      <c r="S4" s="14">
-        <f>D4/(MAX(P4:R4)*1.1*1.2*1.1*1.25)-1</f>
-        <v>0.26078761402247985</v>
-      </c>
-      <c r="T4" s="14">
-        <f t="shared" si="2"/>
+      <c r="S4" s="3">
+        <f>D4/(MAX(P4:R4)*1.1*1.2*1.1*1.1)-1</f>
+        <v>0.43271319775281802</v>
+      </c>
+      <c r="T4" s="3">
+        <f xml:space="preserve"> E4/( MAX(P4:R4)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.47512150840630141</v>
       </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
       <c r="V4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="2">
         <v>448000000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="2">
         <v>523000000</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G5">
@@ -1150,7 +1174,7 @@
         <f t="shared" si="0"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K5">
@@ -1160,53 +1184,53 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f>-(F5+L5)/2</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="3">
         <v>4.7</v>
       </c>
       <c r="O5">
         <v>133.19999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="2">
         <v>86700000</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="2">
         <v>365000000</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="2">
         <v>26500000</v>
       </c>
-      <c r="S5" s="14">
-        <f t="shared" ref="S5:S12" si="3" xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.32374806596475347</v>
-      </c>
-      <c r="T5" s="14">
-        <f t="shared" si="2"/>
+      <c r="S5" s="3">
+        <f xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.23153189314176537</v>
+      </c>
+      <c r="T5" s="3">
+        <f xml:space="preserve"> E5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.21053624665081716</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="2">
         <v>448000000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="2">
         <v>523000000</v>
       </c>
       <c r="F6">
         <v>2E-3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="7">
         <f>0.005*1.5</f>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -1217,7 +1241,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K6">
@@ -1227,47 +1251,47 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f>-(F6+L6)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="3">
         <v>2.2799999999999998</v>
       </c>
       <c r="O6">
         <v>123.7</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="2">
         <v>102000000</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="2">
         <v>402000000</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="2">
         <v>20400000</v>
       </c>
-      <c r="S6" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.38599015939585823</v>
-      </c>
-      <c r="T6" s="14">
-        <f t="shared" si="2"/>
+      <c r="S6" s="3">
+        <f xml:space="preserve"> D6/( MAX(P6:R6)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.30226154476802092</v>
+      </c>
+      <c r="T6" s="3">
+        <f xml:space="preserve"> E6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.28319833340186129</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <v>448000000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>523000000</v>
       </c>
       <c r="F7">
@@ -1276,7 +1300,7 @@
       <c r="G7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="7">
         <f xml:space="preserve"> 0.013*1.5</f>
         <v>1.95E-2</v>
       </c>
@@ -1284,7 +1308,7 @@
         <f t="shared" si="0"/>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K7">
@@ -1294,47 +1318,47 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f>-(F7+L7)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="3">
         <v>2.27</v>
       </c>
       <c r="O7">
         <v>123.4</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="2">
         <v>414000000</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.4037875460800362</v>
-      </c>
-      <c r="T7" s="14">
-        <f t="shared" si="2"/>
+      <c r="S7" s="3">
+        <f xml:space="preserve"> D7/( MAX(P7:R7)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.32248584781822298</v>
+      </c>
+      <c r="T7" s="3">
+        <f xml:space="preserve"> E7/( MAX(P7:R7)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.30397519330325651</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="2">
         <v>448000000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="2">
         <v>523000000</v>
       </c>
       <c r="F8">
@@ -1350,10 +1374,10 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="7">
         <f xml:space="preserve"> 0.005*1.5</f>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -1361,47 +1385,47 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f>-(F8+L8)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="3">
         <v>2.4</v>
       </c>
       <c r="O8">
         <v>142.80000000000001</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="2">
         <v>295000000</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.16328150534622043</v>
-      </c>
-      <c r="T8" s="14">
-        <f t="shared" si="2"/>
+      <c r="S8" s="3">
+        <f xml:space="preserve"> D8/( MAX(P8:R8)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-4.9183528802523302E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <f xml:space="preserve"> E8/( MAX(P8:R8)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-2.3205864500163487E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="2">
         <v>448000000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="2">
         <v>523000000</v>
       </c>
       <c r="F9">
@@ -1417,58 +1441,58 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="K9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="7">
         <f xml:space="preserve"> 0.013*1.5</f>
         <v>1.95E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f>-(F9+L9)/2</f>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="3">
         <v>2.4</v>
       </c>
       <c r="O9">
         <v>195.5</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="2">
         <v>214000000</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="14">
-        <f t="shared" si="3"/>
-        <v>0.15342035477974303</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="2"/>
+      <c r="S9" s="3">
+        <f xml:space="preserve"> D9/( MAX(P9:R9)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>0.31070494861334441</v>
+      </c>
+      <c r="T9" s="3">
+        <f xml:space="preserve"> E9/( MAX(P9:R9)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.34651528024510192</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="2">
         <v>448000000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="2">
         <v>523000000</v>
       </c>
       <c r="F10">
@@ -1484,8 +1508,8 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>51</v>
+      <c r="J10" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -1494,47 +1518,47 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f>-(F10+L10)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="3">
         <v>2.0499999999999998</v>
       </c>
       <c r="O10">
         <v>120</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="2">
         <v>393000000</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.37192886533622149</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="2"/>
+      <c r="S10" s="3">
+        <f xml:space="preserve"> D10/( MAX(P10:R10)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.28628280151843366</v>
+      </c>
+      <c r="T10" s="3">
+        <f xml:space="preserve"> E10/( MAX(P10:R10)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.26678302805991927</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="2">
         <v>448000000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>523000000</v>
       </c>
       <c r="F11">
@@ -1547,260 +1571,194 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>-(F11+H11)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J11" t="s">
-        <v>51</v>
+      <c r="J11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <f>-(F11+L11)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="O11">
+        <v>113</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>352000000</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="3">
+        <f xml:space="preserve"> D11/( MAX(P11:R11)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.203150968740751</v>
+      </c>
+      <c r="T11" s="3">
+        <f xml:space="preserve"> E11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.18137991485098937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F13">
+        <v>2E-3</v>
+      </c>
+      <c r="G13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <f>-(F13+H13)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13">
         <v>0.01</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L13" s="7">
         <f xml:space="preserve"> 0.013*1.5</f>
         <v>1.95E-2</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
+      <c r="M13">
+        <f>-(F13+L13)/2</f>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N13" s="3">
         <v>2.16</v>
       </c>
-      <c r="O11">
+      <c r="O13">
         <v>176</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q13" s="2">
         <v>237000000</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="14">
-        <f t="shared" si="3"/>
-        <v>4.1485046088038047E-2</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="2"/>
+      <c r="S13" s="3">
+        <f xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>0.18350573419095206</v>
+      </c>
+      <c r="T13" s="3">
+        <f xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.21584080157152652</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="2">
         <v>448000000</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="2">
         <v>523000000</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>2E-3</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f t="shared" ref="I14" si="1">-(F14+H14)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L12">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="N12" s="14">
-        <v>2.65</v>
-      </c>
-      <c r="O12">
-        <v>113</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>352000000</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.29877285249186092</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.18137991485098937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="11">
-        <v>448000000</v>
-      </c>
-      <c r="E13" s="11">
-        <v>523000000</v>
-      </c>
-      <c r="F13">
-        <v>2E-3</v>
-      </c>
-      <c r="G13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="4">-(F13+H13)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="J14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.01</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L14" s="7">
         <f xml:space="preserve"> 0.013*1.4</f>
         <v>1.8199999999999997E-2</v>
       </c>
-      <c r="M13">
-        <f t="shared" ref="M13" si="5">-(F13+L13)/2</f>
+      <c r="M14">
+        <f>-(F14+L14)/2</f>
         <v>-1.0099999999999998E-2</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="3">
         <v>2.27</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>177.5</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="2">
         <v>223000000</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="14">
-        <f t="shared" ref="S13" si="6" xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.10686975750163685</v>
-      </c>
-      <c r="T13" s="14">
-        <f t="shared" ref="T13" si="7" xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="S14" s="3">
+        <f xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>0.25780654261549629</v>
+      </c>
+      <c r="T14" s="3">
+        <f xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.29217161422624116</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="2">
         <v>448000000</v>
       </c>
-      <c r="E14" s="11">
-        <v>523000000</v>
-      </c>
-      <c r="F14">
-        <v>2E-3</v>
-      </c>
-      <c r="G14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14" si="8">-(F14+H14)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14">
-        <v>0.01</v>
-      </c>
-      <c r="L14" s="20">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14" si="9">-(F14+L14)/2</f>
-        <v>-9.5000000000000015E-3</v>
-      </c>
-      <c r="N14" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="O14">
-        <v>166.3</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>244000000</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="14">
-        <f t="shared" ref="S14" si="10" xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>1.1606376733053425E-2</v>
-      </c>
-      <c r="T14" s="14">
-        <f t="shared" ref="T14" si="11" xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.18096012283791718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="11">
-        <v>448000000</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="E15" s="2">
         <v>523000000</v>
       </c>
       <c r="F15">
@@ -1813,64 +1771,137 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15" si="12">-(F15+H15)/2</f>
+        <f t="shared" ref="I15" si="2">-(F15+H15)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="22" t="s">
         <v>54</v>
       </c>
       <c r="K15">
         <v>0.01</v>
       </c>
-      <c r="L15" s="20">
-        <v>1.7500000000000002E-2</v>
+      <c r="L15" s="7">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15" si="13">-(F15+L15)/2</f>
-        <v>-9.7500000000000017E-3</v>
-      </c>
-      <c r="N15" s="14">
-        <v>2.2599999999999998</v>
+        <f>-(F15+L15)/2</f>
+        <v>-9.5000000000000015E-3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.2400000000000002</v>
       </c>
       <c r="O15">
-        <v>171</v>
-      </c>
-      <c r="P15" s="15" t="s">
+        <v>166.3</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="11">
-        <v>235000000</v>
-      </c>
-      <c r="R15" s="15" t="s">
+      <c r="Q15" s="2">
+        <v>244000000</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S15" s="14">
-        <f t="shared" ref="S15" si="14" xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>5.0348748607936145E-2</v>
-      </c>
-      <c r="T15" s="14">
-        <f t="shared" ref="T15" si="15" xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.22618838286149701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="S15" s="3">
+        <f xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>0.14955270083301508</v>
+      </c>
+      <c r="T15" s="3">
+        <f xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.18096012283791718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F16">
+        <v>2E-3</v>
+      </c>
+      <c r="G16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16" si="3">-(F16+H16)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <f>-(F16+L16)/2</f>
+        <v>-9.5000000000000015E-3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="O16">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>282000000</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="3">
+        <f xml:space="preserve"> D16/( MAX(P16:R16)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-5.3515638182424219E-3</v>
+      </c>
+      <c r="T16" s="3">
+        <f xml:space="preserve"> E16/( MAX(P16:R16)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>2.1823652384580727E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:O20"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="N1:T1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
